--- a/Ecoli_Ecemm_AGEonly.xlsx
+++ b/Ecoli_Ecemm_AGEonly.xlsx
@@ -1,21 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vanderbilt365-my.sharepoint.com/personal/lindsay_e_martin_vanderbilt_edu/Documents/Hillyer_Lab/Lytic_Immunity/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_8D79FDCE8F79A8D366075C52F3D8CAF15B98F33E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9059749D-4234-4DCA-97B9-ABEDE07B1C8F}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="11170" yWindow="580" windowWidth="7240" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Age_centered</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +99,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +151,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +185,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +220,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,50 +396,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Age_centered</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>SE</t>
-        </is>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>-1.25</v>
       </c>
       <c r="B2">
-        <v>18.01064797550505</v>
+        <v>18.010647975505051</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2">
-        <v>2.582865841218266</v>
+        <v>2.5828658412182661</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>-0.47</v>
       </c>
@@ -404,15 +444,19 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>5.78174019518361</v>
+        <v>5.7817401951836098</v>
+      </c>
+      <c r="F3">
+        <f>(B3-B2)/B2*100</f>
+        <v>16.035256484529409</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.5</v>
       </c>
       <c r="B4">
-        <v>19.46276915455558</v>
+        <v>19.462769154555581</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -420,8 +464,12 @@
       <c r="D4">
         <v>5.972152710433499</v>
       </c>
+      <c r="F4">
+        <f>(B4-B3)/B3*100</f>
+        <v>-6.8709169004509949</v>
+      </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1.48</v>
       </c>
@@ -432,7 +480,11 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>6.537772981761862</v>
+        <v>6.5377729817618624</v>
+      </c>
+      <c r="F5">
+        <f>(B5-B4)/B4*100</f>
+        <v>-24.769304333981502</v>
       </c>
     </row>
   </sheetData>
